--- a/Data/aearep-1707/candidatepackages.xlsx
+++ b/Data/aearep-1707/candidatepackages.xlsx
@@ -14,23 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
     <t>winsor</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>coefplot</t>
   </si>
   <si>
@@ -52,42 +46,33 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>poverty</t>
+  </si>
+  <si>
+    <t>norm</t>
   </si>
   <si>
     <t>project</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>cluster</t>
   </si>
   <si>
-    <t>norm</t>
+    <t>white</t>
   </si>
   <si>
     <t>rev</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>poverty</t>
-  </si>
-  <si>
     <t>hbar</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>heart</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>forest</t>
   </si>
   <si>
@@ -97,39 +82,33 @@
     <t>pre</t>
   </si>
   <si>
+    <t>effects</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>effects</t>
+    <t>mc</t>
   </si>
   <si>
     <t>er</t>
   </si>
   <si>
-    <t>mc</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>scores</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>varlab</t>
   </si>
   <si>
+    <t>stack</t>
+  </si>
+  <si>
     <t>scm</t>
   </si>
   <si>
-    <t>stack</t>
-  </si>
-  <si>
     <t>dash</t>
   </si>
   <si>
@@ -145,24 +124,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1707</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1707/129261/code</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1707/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>1_build_progs.do</t>
   </si>
   <si>
@@ -248,9 +215,6 @@
   </si>
   <si>
     <t>tabC1_tabC2.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -294,7 +258,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -302,13 +266,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -316,7 +280,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -328,7 +292,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -340,7 +304,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -352,7 +316,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -364,7 +328,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -376,7 +340,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -388,7 +352,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -400,7 +364,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -412,7 +376,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -424,10 +388,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>499</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D11"/>
     </row>
@@ -436,10 +400,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>267</v>
+        <v>529</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.17487603425979614</v>
       </c>
       <c r="D12"/>
     </row>
@@ -448,10 +412,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>279</v>
+        <v>539</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.17818181216716766</v>
       </c>
       <c r="D13"/>
     </row>
@@ -460,10 +424,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="C14">
-        <v>0.16677719354629517</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D14"/>
     </row>
@@ -472,10 +436,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C15">
-        <v>0.18733422458171844</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D15"/>
     </row>
@@ -484,10 +448,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="C16">
-        <v>0.18766577541828156</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D16"/>
     </row>
@@ -496,10 +460,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>594</v>
+        <v>746</v>
       </c>
       <c r="C17">
-        <v>0.19694960117340088</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D17"/>
     </row>
@@ -508,10 +472,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>698</v>
+        <v>889</v>
       </c>
       <c r="C18">
-        <v>0.23143236339092255</v>
+        <v>0.29388430714607239</v>
       </c>
       <c r="D18"/>
     </row>
@@ -520,10 +484,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>745</v>
+        <v>1101</v>
       </c>
       <c r="C19">
-        <v>0.24701590836048126</v>
+        <v>0.36396694183349609</v>
       </c>
       <c r="D19"/>
     </row>
@@ -532,10 +496,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>811</v>
+        <v>1226</v>
       </c>
       <c r="C20">
-        <v>0.26889920234680176</v>
+        <v>0.40528926253318787</v>
       </c>
       <c r="D20"/>
     </row>
@@ -544,10 +508,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>868</v>
+        <v>1414</v>
       </c>
       <c r="C21">
-        <v>0.28779840469360352</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D21"/>
     </row>
@@ -556,10 +520,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>985</v>
+        <v>1428</v>
       </c>
       <c r="C22">
-        <v>0.32659152150154114</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D22"/>
     </row>
@@ -568,10 +532,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1049</v>
+        <v>1497</v>
       </c>
       <c r="C23">
-        <v>0.34781166911125183</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D23"/>
     </row>
@@ -580,10 +544,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1124</v>
+        <v>1658</v>
       </c>
       <c r="C24">
-        <v>0.37267905473709106</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D24"/>
     </row>
@@ -592,10 +556,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1375</v>
+        <v>1678</v>
       </c>
       <c r="C25">
-        <v>0.4559018611907959</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D25"/>
     </row>
@@ -604,10 +568,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1423</v>
+        <v>1767</v>
       </c>
       <c r="C26">
-        <v>0.47181698679924011</v>
+        <v>0.58413225412368774</v>
       </c>
       <c r="D26"/>
     </row>
@@ -616,10 +580,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1553</v>
+        <v>1904</v>
       </c>
       <c r="C27">
-        <v>0.51492041349411011</v>
+        <v>0.62942147254943848</v>
       </c>
       <c r="D27"/>
     </row>
@@ -628,10 +592,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1621</v>
+        <v>2030</v>
       </c>
       <c r="C28">
-        <v>0.53746682405471802</v>
+        <v>0.67107439041137695</v>
       </c>
       <c r="D28"/>
     </row>
@@ -640,10 +604,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1660</v>
+        <v>2084</v>
       </c>
       <c r="C29">
-        <v>0.55039787292480469</v>
+        <v>0.68892562389373779</v>
       </c>
       <c r="D29"/>
     </row>
@@ -652,10 +616,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1753</v>
+        <v>2226</v>
       </c>
       <c r="C30">
-        <v>0.5812334418296814</v>
+        <v>0.73586779832839966</v>
       </c>
       <c r="D30"/>
     </row>
@@ -664,10 +628,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1755</v>
+        <v>2367</v>
       </c>
       <c r="C31">
-        <v>0.58189654350280762</v>
+        <v>0.78247934579849243</v>
       </c>
       <c r="D31"/>
     </row>
@@ -676,96 +640,12 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1798</v>
+        <v>2436</v>
       </c>
       <c r="C32">
-        <v>0.5961538553237915</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1817</v>
-      </c>
-      <c r="C33">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>1835</v>
-      </c>
-      <c r="C34">
-        <v>0.60842174291610718</v>
-      </c>
-      <c r="D34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>1859</v>
-      </c>
-      <c r="C35">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D35"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>2148</v>
-      </c>
-      <c r="C36">
-        <v>0.71220159530639648</v>
-      </c>
-      <c r="D36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>2174</v>
-      </c>
-      <c r="C37">
-        <v>0.72082227468490601</v>
-      </c>
-      <c r="D37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>2330</v>
-      </c>
-      <c r="C38">
-        <v>0.77254641056060791</v>
-      </c>
-      <c r="D38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>2424</v>
-      </c>
-      <c r="C39">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D39"/>
     </row>
   </sheetData>
 </worksheet>
@@ -773,271 +653,247 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
